--- a/Jogos_do_Dia/2023-10-09_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-10-09_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -830,13 +830,13 @@
         <v>4.2</v>
       </c>
       <c r="J3" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="K3" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="L3" t="n">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="M3" t="n">
         <v>1.45</v>
@@ -860,7 +860,7 @@
         <v>2.1</v>
       </c>
       <c r="T3" t="n">
-        <v>1.68</v>
+        <v>1.75</v>
       </c>
       <c r="U3" t="n">
         <v>1.85</v>
@@ -969,13 +969,13 @@
         <v>3.2</v>
       </c>
       <c r="J4" t="n">
-        <v>2.8</v>
+        <v>2.39</v>
       </c>
       <c r="K4" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="L4" t="n">
-        <v>2.38</v>
+        <v>2.72</v>
       </c>
       <c r="M4" t="n">
         <v>1.45</v>
@@ -996,10 +996,10 @@
         <v>2.95</v>
       </c>
       <c r="S4" t="n">
-        <v>2.28</v>
+        <v>2.25</v>
       </c>
       <c r="T4" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="U4" t="n">
         <v>1.91</v>
@@ -1108,13 +1108,13 @@
         <v>3.6</v>
       </c>
       <c r="J5" t="n">
-        <v>2.45</v>
+        <v>2.26</v>
       </c>
       <c r="K5" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="L5" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="M5" t="n">
         <v>1.44</v>
@@ -1247,13 +1247,13 @@
         <v>2.3</v>
       </c>
       <c r="J6" t="n">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="K6" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="L6" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="M6" t="n">
         <v>1.36</v>
@@ -1274,10 +1274,10 @@
         <v>3.4</v>
       </c>
       <c r="S6" t="n">
-        <v>1.89</v>
+        <v>1.91</v>
       </c>
       <c r="T6" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="U6" t="n">
         <v>1.75</v>
@@ -1386,13 +1386,13 @@
         <v>4.6</v>
       </c>
       <c r="J7" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="K7" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="L7" t="n">
-        <v>4.2</v>
+        <v>3.95</v>
       </c>
       <c r="M7" t="n">
         <v>1.44</v>
@@ -1413,10 +1413,10 @@
         <v>3</v>
       </c>
       <c r="S7" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="T7" t="n">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="U7" t="n">
         <v>2</v>
@@ -1803,13 +1803,13 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>2.07</v>
+        <v>2.25</v>
       </c>
       <c r="K10" t="n">
-        <v>3.3</v>
+        <v>3.46</v>
       </c>
       <c r="L10" t="n">
-        <v>3.1</v>
+        <v>3.22</v>
       </c>
       <c r="M10" t="n">
         <v>0</v>
@@ -1830,10 +1830,10 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>1.71</v>
+        <v>1.87</v>
       </c>
       <c r="T10" t="n">
-        <v>1.9</v>
+        <v>1.97</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1942,13 +1942,13 @@
         <v>8</v>
       </c>
       <c r="J11" t="n">
-        <v>1.36</v>
+        <v>1.42</v>
       </c>
       <c r="K11" t="n">
-        <v>3.93</v>
+        <v>3.8</v>
       </c>
       <c r="L11" t="n">
-        <v>8.199999999999999</v>
+        <v>7.5</v>
       </c>
       <c r="M11" t="n">
         <v>1.5</v>
@@ -1969,10 +1969,10 @@
         <v>2.9</v>
       </c>
       <c r="S11" t="n">
-        <v>2.27</v>
+        <v>2.3</v>
       </c>
       <c r="T11" t="n">
-        <v>1.56</v>
+        <v>1.52</v>
       </c>
       <c r="U11" t="n">
         <v>2.63</v>
@@ -2020,10 +2020,10 @@
         <v>0</v>
       </c>
       <c r="AJ11" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="AK11" t="n">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="AL11" t="n">
         <v>1.37</v>
